--- a/Output_testing/R1_201907/Country/HKD/MN/U S A_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/U S A_201907_HKD_MN.xlsx
@@ -630,8 +630,10 @@
       <c r="I9" s="9" t="n">
         <v>8.136416233011401</v>
       </c>
-      <c r="J9" s="9" t="n">
-        <v>0.02710000049599426</v>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
     <row r="10">

--- a/Output_testing/R1_201907/Country/HKD/MN/U S A_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/U S A_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>61630.985743</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>19.01958505638286</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>55073.511211</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>16.67894336583539</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>60961.366254</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>17.08573864489307</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>31420.211743</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>17.63725186052496</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>1.402812641154272</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>17455.843242</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>5.386947673635312</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>19555.026392</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.922215063789866</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>19537.931388</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>5.475926966044945</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>11646.595895</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>6.537637199839515</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>1.680266551746179</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>21048.280421</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.495589108815718</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>21905.982008</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6.634199005119267</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>26346.505123</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.384176707299068</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>10083.968519</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.660480393256143</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-36.25498593797668</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>17158.34837</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.295139487320778</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>16500.381008</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.997119564299171</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>19316.002134</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.413726502628472</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>9442.756369999999</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.300545830738085</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-7.369159730476516</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>12829.668887</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.959290537053277</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>14051.005134</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.255329172043776</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>15936.36201</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.466509413827265</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>8395.717101</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.712806465826672</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-9.036308519318625</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>10592.277331</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.26882196039891</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>12846.063444</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.890414101899676</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>15081.194914</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.226830377778603</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>7806.094253</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.381830762736037</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-12.69966297592904</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>10067.511352</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.10687694115313</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>13732.76581</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.158950794397908</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>16221.300971</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.54636970759281</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>7718.700443</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.332773593719209</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-25.323101800309</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>19565.173188</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>6.037895891261039</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>17576.613706</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>5.323055278650664</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>16424.553295</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.603335558265542</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>7336.816077</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>4.118408687466168</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-7.544374575171298</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>11430.99337</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.527653307157384</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>13159.587583</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.985364491718999</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>14566.111415</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>4.082467109942007</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>6505.187789</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.651586958517733</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-18.43521764100488</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>11874.39517</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.664488993745622</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>11577.537165</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.506242519222576</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>11576.262465</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.244497410664539</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>6220.030258</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>3.491518171098026</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-10.46495054094541</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>130386.114538</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>40.23771104307597</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>134219.36943</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>40.64816664302271</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>140829.195473</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>39.47042160106368</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>71570.789281</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>40.17516007627745</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-10.58926232966166</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1810.739127</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>49.62560134555216</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1687.450554</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>48.69955346167692</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1936.053635</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>53.15866425843465</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1002.056184</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>48.62203124330598</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-14.43672214928053</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>289.681166</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>7.939079598422307</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>296.196378</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>8.548180159337614</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>374.023995</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>10.26966175697061</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>247.742855</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>12.02104335909754</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>26.63838179666265</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>103.27497</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.830381480011979</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>169.918958</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.903833987702988</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>177.022177</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.860538108718353</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>134.898174</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.545564346213271</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>42.93162754505844</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>122.514188</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.357656639879981</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>113.857204</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.285900721684231</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>138.650357</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.806954334235221</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>70.27197200000001</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>3.409754934572334</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-2.09215406904707</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>177.489785</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>4.864332571147761</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>147.298583</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.251013578225271</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>104.721416</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.875359697259558</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>57.386363</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.784516057360809</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-12.43857380358014</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>21.427285</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.5872419099316948</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>82.50831700000001</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>2.38117685004149</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>128.478122</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3.527652968122552</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>56.024916</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.718455571305164</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-25.33215545659299</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>60.490843</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.65782823986792</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>66.71263500000001</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.925315990474847</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>74.538606</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.046623429751078</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>55.009872</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>2.669203341869963</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-7.591668656448947</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>183.643223</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>5.032975340577779</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>131.08902</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>3.783208179105457</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>97.203153</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>2.668929042964378</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>36.072105</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.750300077307655</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-44.42530265220043</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>25.347243</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.6946733284605483</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>35.000711</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.010114928997916</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>28.899987</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.7935135051184292</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>32.834823</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.593219836637844</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>60.25236308232233</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>50.508845</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.384258929969146</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>38.239237</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.1035782720868</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>32.14469</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.8826040521348789</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>29.90188</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.450906812220807</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>117.6797554103122</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>803.683698</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>22.02597061617873</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>696.751045</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>20.10812387066647</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>550.292235</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>15.10949884629029</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>338.710609</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>16.43500442010864</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>8.864362223116661</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1728,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>61615.256929</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>19.23128211354778</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>55063.117178</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>16.85264343387264</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>60956.790632</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>17.26064548525681</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>31418.367966</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>17.8426311371644</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>1.407670731434707</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>17434.415957</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>5.44160956985638</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>19472.518075</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.959768002541091</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>19409.453266</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>5.496019203334064</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>11590.570979</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>6.582336895131502</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>1.858382607875519</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>21005.495381</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.556210713725119</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>21877.045761</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.695698872347047</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>26328.609749</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.455261247933826</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>10060.200663</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.713232774853731</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-36.36403681884664</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>15347.609243</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.790277892709855</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>14812.930454</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.533652432807701</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>17379.948499</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.921340616574018</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>8440.700186</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.793511239067935</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-6.451817917059898</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>12707.154699</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.966142300738263</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>13937.14793</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.265610023314656</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>15797.711653</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.473311299587963</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>8325.445129</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.728057378734728</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-9.090731799767404</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>10557.704795</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.295258504207236</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>12824.237975</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.924992281224387</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>15066.482864</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.266255108396086</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>7800.42905</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.429898408516581</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-12.66578562285819</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>10043.175083</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.134664090737912</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>13690.404729</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.190091683647413</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>16216.306789</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.591841526810193</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>7717.743586</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.382940965146071</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-25.31120558485023</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>19514.664343</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>6.090894269318359</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>17538.374469</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5.36780310457767</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>16392.408605</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.641706865581658</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>7306.914197</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>4.149629124882241</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-7.761517966399589</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>11398.487145</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.55768251044929</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>13142.314802</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>4.022343023876317</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>14548.230308</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>4.119505688877791</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>6492.244359</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.686974494516408</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-18.49914533206656</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>11866.55938</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.703776670393742</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>11572.212956</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.541796917487789</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>11571.433705</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>3.27659007089041</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>6216.190183</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>3.530202098140755</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-10.48435851032845</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>128900.268284</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>40.23220136431607</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>132802.51592</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>40.64560022430329</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>139487.380999</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>39.49752288675718</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>70717.15167799999</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>40.16058548384564</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-10.79449702894138</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2186,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>26711.469788</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>12.9262826916242</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>27391.047187</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>12.81530003206007</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>32987.768189</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>14.27253457830698</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>20019.5989</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>15.87568117959005</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>10.68699879272106</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>32278.966416</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>15.62051988146701</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>34766.430388</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>16.265980392214</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>36180.200685</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>15.65377695054072</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>19972.10306</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>15.83801664809952</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-2.500397597343351</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>17340.166744</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>8.391297784502306</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>18900.043968</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>8.842660611530093</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>18162.430311</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.858182862042735</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>10612.753033</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.415986975125426</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>4.626703489731021</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>6577.13808</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.182825460324175</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4654.490118</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.177670935733278</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>10330.827257</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.469750375450256</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>9478.804615999999</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.516757992950721</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>132.5531385828015</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>10846.022946</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.248635129124279</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>14067.924704</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.581883294909377</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>11199.852393</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.845744023517478</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>6189.759933</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.908522681466343</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>0.2303982050099851</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>5586.601116</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.703482282476309</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>6759.408474</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.162487620213061</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>6934.226037</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.000172073474221</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>3742.233156</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.967616922851889</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-18.21626699878088</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>11992.841489</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>5.803606487887706</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>11824.792315</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>5.532401163743908</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>10443.258763</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.518395150322029</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>3663.094239</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.904859211198134</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-20.42438949179416</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>6762.42757</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.272491223628703</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>7997.692891</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.741837004723308</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>7351.169261</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.180567320210408</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3039.160317</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.410075271106147</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-31.82094864159208</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>4743.730156</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.295598014482367</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>5375.346824</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.514934235834376</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>6486.57056</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.806488819789253</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>3000.054644</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.379064200406758</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-23.56102155275991</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>5500.827639</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.661974562386581</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>5356.9902</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.506345822162942</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>5896.896337</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.55135953400416</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2923.66804</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.318489092106482</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-8.534630962832612</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>78304.44383600001</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>37.89328648209636</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>76642.90594900001</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>35.85849888687559</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>85154.41112999999</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>36.84302831234177</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>43461.068751</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>34.46492982509854</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-6.221325377582431</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
